--- a/pandas/client.xlsx
+++ b/pandas/client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32c6fa4f238d758c/007/SkillFactory/pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_AD4DF75460589B3ACB728435979C78C25ADEDDA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68FE9D85-21E3-40E6-9D5F-698CBECBA558}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_AD4DF75460589B3ACB728435979C78C25ADEDDA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DCFAEAC-3F27-4EE3-B9FF-15218BB027D7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stat" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>kol</t>
+  </si>
+  <si>
+    <t>Anzhelika</t>
+  </si>
+  <si>
+    <t>Aleksei</t>
+  </si>
+  <si>
+    <t>Olga</t>
+  </si>
+  <si>
+    <t>Dmitrii</t>
   </si>
 </sst>
 </file>
@@ -38,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-419]d\ mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -71,8 +83,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -353,55 +369,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="7" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>44587</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>44588</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>44589</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>9</v>
       </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>44590</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>

--- a/pandas/client.xlsx
+++ b/pandas/client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32c6fa4f238d758c/007/SkillFactory/pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_AD4DF75460589B3ACB728435979C78C25ADEDDA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DCFAEAC-3F27-4EE3-B9FF-15218BB027D7}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_AD4DF75460589B3ACB728435979C78C25ADEDDA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5681A73-E0D7-4495-9D09-60140467694E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stat" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L5" sqref="K5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,6 +484,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44591</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
